--- a/outputs-r202/test-f__WCHB1-69.xlsx
+++ b/outputs-r202/test-f__WCHB1-69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,14 +98,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,280 +136,280 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.024973089895146836</v>
+        <v>0.0029978788591018936</v>
       </c>
       <c r="C2">
-        <v>0.80021528083882498</v>
+        <v>0.97601696912718505</v>
       </c>
       <c r="D2">
-        <v>0.024973089895146863</v>
+        <v>0.0029978788591018875</v>
       </c>
       <c r="E2">
-        <v>0.024973089895146863</v>
+        <v>0.002997878859101898</v>
       </c>
       <c r="F2">
-        <v>0.024973089895146863</v>
+        <v>0.0029978788591019053</v>
       </c>
       <c r="G2">
-        <v>0.024973089895146856</v>
+        <v>0.0029978788591019023</v>
       </c>
       <c r="H2">
-        <v>0.024973089895146853</v>
+        <v>0.0029978788591018901</v>
       </c>
       <c r="I2">
-        <v>0.024973089895146853</v>
+        <v>0.0029978788591018901</v>
       </c>
       <c r="J2">
-        <v>0.024973089895146856</v>
+        <v>0.0029978788591018945</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.00060803152200875315</v>
+        <v>0.00075760422660772308</v>
       </c>
       <c r="C3">
-        <v>0.99513574782392999</v>
+        <v>0.99393916618713807</v>
       </c>
       <c r="D3">
-        <v>0.00060803152200875489</v>
+        <v>0.0007576042266077284</v>
       </c>
       <c r="E3">
-        <v>0.00060803152200875749</v>
+        <v>0.00075760422660772948</v>
       </c>
       <c r="F3">
-        <v>0.00060803152200876085</v>
+        <v>0.00075760422660773013</v>
       </c>
       <c r="G3">
-        <v>0.00060803152200875651</v>
+        <v>0.00075760422660772731</v>
       </c>
       <c r="H3">
-        <v>0.00060803152200875131</v>
+        <v>0.00075760422660772005</v>
       </c>
       <c r="I3">
-        <v>0.00060803152200875044</v>
+        <v>0.00075760422660771918</v>
       </c>
       <c r="J3">
-        <v>0.00060803152200875478</v>
+        <v>0.00075760422660772395</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00054914952349630639</v>
+        <v>0.00056214007581063493</v>
       </c>
       <c r="C4">
-        <v>0.99560680381202971</v>
+        <v>0.99550287939351501</v>
       </c>
       <c r="D4">
-        <v>0.00054914952349631029</v>
+        <v>0.00056214007581063667</v>
       </c>
       <c r="E4">
-        <v>0.00054914952349631159</v>
+        <v>0.0005621400758106384</v>
       </c>
       <c r="F4">
-        <v>0.00054914952349631246</v>
+        <v>0.00056214007581064014</v>
       </c>
       <c r="G4">
-        <v>0.00054914952349630975</v>
+        <v>0.00056214007581063743</v>
       </c>
       <c r="H4">
-        <v>0.00054914952349630216</v>
+        <v>0.00056214007581063396</v>
       </c>
       <c r="I4">
-        <v>0.00054914952349630216</v>
+        <v>0.00056214007581063396</v>
       </c>
       <c r="J4">
-        <v>0.00054914952349630888</v>
+        <v>0.00056214007581063482</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00057374989665871876</v>
+        <v>0.00071577059550206152</v>
       </c>
       <c r="C5">
-        <v>0.99541000082673059</v>
+        <v>0.99427383523598345</v>
       </c>
       <c r="D5">
-        <v>0.00057374989665872028</v>
+        <v>0.00071577059550206423</v>
       </c>
       <c r="E5">
-        <v>0.00057374989665872115</v>
+        <v>0.00071577059550206759</v>
       </c>
       <c r="F5">
-        <v>0.00057374989665872201</v>
+        <v>0.00071577059550206933</v>
       </c>
       <c r="G5">
-        <v>0.00057374989665872201</v>
+        <v>0.00071577059550206835</v>
       </c>
       <c r="H5">
-        <v>0.00057374989665871584</v>
+        <v>0.00071577059550205946</v>
       </c>
       <c r="I5">
-        <v>0.00057374989665871584</v>
+        <v>0.00071577059550205946</v>
       </c>
       <c r="J5">
-        <v>0.00057374989665872017</v>
+        <v>0.00071577059550206293</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.001920919023577489</v>
+        <v>0.0014470533368360066</v>
       </c>
       <c r="C6">
-        <v>0.98463264781138027</v>
+        <v>0.98842357330531194</v>
       </c>
       <c r="D6">
-        <v>0.0019209190235774973</v>
+        <v>0.0014470533368360087</v>
       </c>
       <c r="E6">
-        <v>0.0019209190235775064</v>
+        <v>0.0014470533368360192</v>
       </c>
       <c r="F6">
-        <v>0.0019209190235775098</v>
+        <v>0.0014470533368360215</v>
       </c>
       <c r="G6">
-        <v>0.0019209190235775029</v>
+        <v>0.0014470533368360189</v>
       </c>
       <c r="H6">
-        <v>0.0019209190235774866</v>
+        <v>0.0014470533368360033</v>
       </c>
       <c r="I6">
-        <v>0.0019209190235774797</v>
+        <v>0.0014470533368360033</v>
       </c>
       <c r="J6">
-        <v>0.0019209190235774914</v>
+        <v>0.001447053336836012</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00061381580101290193</v>
+        <v>0.0017520419834463098</v>
       </c>
       <c r="C7">
-        <v>0.99508947359189659</v>
+        <v>0.98598366413242977</v>
       </c>
       <c r="D7">
-        <v>0.00061381580101290626</v>
+        <v>0.0017520419834463107</v>
       </c>
       <c r="E7">
-        <v>0.0006138158010129054</v>
+        <v>0.0017520419834463194</v>
       </c>
       <c r="F7">
-        <v>0.00061381580101290626</v>
+        <v>0.0017520419834463263</v>
       </c>
       <c r="G7">
-        <v>0.00061381580101290648</v>
+        <v>0.0017520419834463165</v>
       </c>
       <c r="H7">
-        <v>0.00061381580101289932</v>
+        <v>0.0017520419834463005</v>
       </c>
       <c r="I7">
-        <v>0.00061381580101289932</v>
+        <v>0.0017520419834463005</v>
       </c>
       <c r="J7">
-        <v>0.00061381580101290214</v>
+        <v>0.0017520419834463126</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="C8">
-        <v>0.010844690161504756</v>
+        <v>0.0043208600295586153</v>
       </c>
       <c r="D8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="E8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="F8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="G8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="H8">
-        <v>0.98915530983833988</v>
+        <v>0.99567913997028612</v>
       </c>
       <c r="I8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="J8">
-        <v>2.2199677251441753e-14</v>
+        <v>2.2199607524252444e-14</v>
       </c>
       <c r="K8">
         <v>7</v>
